--- a/medicine/Enfance/Richard_Stevenson/Richard_Stevenson.xlsx
+++ b/medicine/Enfance/Richard_Stevenson/Richard_Stevenson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Stevenson Lipez, né le 30 novembre 1938 à Lock Haven en Pennsylvanie et mort le 16 mars 2022 à Becket au Massachusetts, est un journaliste et écrivain américain, auteur de roman policier.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études à l'université d'État de Pennsylvanie et obtient un diplôme en anglais. De 1962 à 1964, il sert dans le Corps de la paix en Éthiopie en tant que professeur d'anglais à Addis-Abeba et, de 1964 à 1967, en qualité d'évaluateur des programmes de cet organisme. Puis, jusqu'en 1970, il œuvre au sein de l'organisation humanitaire Opportunity International (en).
 Il travaille ensuite comme éditorialiste et critique littéraire pour divers journaux, notamment The Washington Post, Newsday, The Berkshire Eagle (en) et Newsweek.
-Ouvertement homosexuel, il commence en 1981 avec Les Damnés du bitume (Death Trick) une série d'une douzaine de romans policiers ayant pour héros le détective privé gay Donald Strachey, exerçant à Albany, dans l'État de New York. Tout en faisant penser à Dave Brandstetter, le personnage de Joseph Hansen, Donald Strachey « fait néanmoins preuve d'une tonicité et d'un humour décapant assez rare dans la profession », selon Claude Mesplède[1].
+Ouvertement homosexuel, il commence en 1981 avec Les Damnés du bitume (Death Trick) une série d'une douzaine de romans policiers ayant pour héros le détective privé gay Donald Strachey, exerçant à Albany, dans l'État de New York. Tout en faisant penser à Dave Brandstetter, le personnage de Joseph Hansen, Donald Strachey « fait néanmoins preuve d'une tonicité et d'un humour décapant assez rare dans la profession », selon Claude Mesplède.
 Quatre des romans de Richard Stevenson ont été adaptés en téléfilms pour la télévision américaine.
-Richard Stevenson Lipez s'éteint le 16 mars 2022 dans sa maison de Becket au Massachusetts d'un cancer du pancréas à l'âge de 83 ans[2].
+Richard Stevenson Lipez s'éteint le 16 mars 2022 dans sa maison de Becket au Massachusetts d'un cancer du pancréas à l'âge de 83 ans.
 </t>
         </is>
       </c>
@@ -548,9 +562,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série policière Donald Strachey
-Death Trick (1981) Publié en français sous le titre Les Damnés du bitume, Paris, Gallimard, coll. « Série noire » no 1868, 1982
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série policière Donald Strachey</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Death Trick (1981) Publié en français sous le titre Les Damnés du bitume, Paris, Gallimard, coll. « Série noire » no 1868, 1982
 On the Other Hand, Death (1984) Publié en français sous le titre La Maison des périls, Paris, Gallimard, coll. « Série noire » no 2024, 1985
 Ice Blues (1986) Publié en français sous le titre Tous les damnés ont froid, Paris, Gallimard, coll. « Série noire » no 2065, 1986
 Third Man Out (1992)
@@ -563,15 +585,7 @@
 Cockeyed (2010)
 Red White Black and Blue (2011)
 The Last Thing I Saw (2012)
-Why Stop at Vengeance (2015)
-Autres romans
-Cast Adrift (2005)
-No Entanglements (2005)
-The Desk (2005)
-The Swift Passage Of Time (2005)
-The Haunting of Amos Manor (2011)
-Roman de littérature d'enfance et de jeunesse
-Take Me to Your Leader! (2004)</t>
+Why Stop at Vengeance (2015)</t>
         </is>
       </c>
     </row>
@@ -596,10 +610,96 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cast Adrift (2005)
+No Entanglements (2005)
+The Desk (2005)
+The Swift Passage Of Time (2005)
+The Haunting of Amos Manor (2011)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Richard_Stevenson</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Richard_Stevenson</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Roman de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Take Me to Your Leader! (2004)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Richard_Stevenson</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Richard_Stevenson</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2005 : Third Man Out (en), téléfilm américain réalisé par Ron Oliver, adaptation du roman éponyme
 2006 : Traitement de choc, téléfilm américain réalisée par Ron Oliver, adaptation du roman éponyme
@@ -608,31 +708,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Richard_Stevenson</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Richard_Stevenson</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 2 : J - Z, Nantes, Joseph K, coll. « Temps noir », 2007, 1086 p. (ISBN 978-2-910-68645-1, OCLC 315873361), p. 827.
 Claude Mesplède, Les années "Série noire" bibliographie critique d'une collection policière, vol. 5 : 1982-1995, Amiens, Encrage, coll. « Travaux » (no 36), 2000.</t>
